--- a/en/application_framework/application_framework/web/getting_started/images/project_search/images.xlsx
+++ b/en/application_framework/application_framework/web/getting_started/images/project_search/images.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D09AA3-D313-4B99-9B55-3333BB9E091B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="555" windowWidth="9015" windowHeight="8700"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクト検索" sheetId="4" r:id="rId1"/>
@@ -15,142 +16,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
-    <t>業種テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>User table</t>
   </si>
   <si>
-    <t>業種コード</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>Project table</t>
   </si>
   <si>
-    <t>業種名</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウシュ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>Customer table</t>
   </si>
   <si>
-    <t>顧客テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>コキャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>Industry type table</t>
   </si>
   <si>
-    <t>顧客ID</t>
-    <rPh sb="0" eb="2">
-      <t>コキャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>User ID</t>
   </si>
   <si>
-    <t>顧客名</t>
-    <rPh sb="0" eb="2">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>Project ID</t>
   </si>
   <si>
-    <t>業種コード（FK）</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>Client ID</t>
   </si>
   <si>
-    <t>ユーザテーブル</t>
-    <phoneticPr fontId="1"/>
+    <t>Industry type code</t>
   </si>
   <si>
-    <t>プロジェクトテーブル</t>
-    <phoneticPr fontId="1"/>
+    <t>Kanji designation</t>
   </si>
   <si>
-    <t>ユーザID</t>
-    <phoneticPr fontId="1"/>
+    <t>Project name</t>
   </si>
   <si>
-    <t>プロジェクトID</t>
-    <phoneticPr fontId="1"/>
+    <t>Client name</t>
   </si>
   <si>
-    <t>漢字指名</t>
-    <rPh sb="0" eb="2">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>Business name</t>
   </si>
   <si>
-    <t>プロジェクト名</t>
+    <t>Furigana</t>
   </si>
   <si>
-    <t>ふりがな</t>
-    <phoneticPr fontId="1"/>
+    <t>Project type</t>
   </si>
   <si>
-    <t>プロジェクト種別</t>
+    <t>Industry type code (FK)</t>
   </si>
   <si>
-    <t>プロジェクト分類</t>
+    <t>Project classification</t>
   </si>
   <si>
-    <t>プロジェクト開始日付</t>
+    <t>Project start date</t>
   </si>
   <si>
-    <t>プロジェクト終了日付</t>
+    <t>Project end date</t>
   </si>
   <si>
-    <t>顧客ID</t>
+    <t>Project manager</t>
   </si>
   <si>
-    <t>プロジェクトマネージャー</t>
+    <t>Project leader</t>
   </si>
   <si>
-    <t>プロジェクトリーダー</t>
+    <t>Remarks</t>
   </si>
   <si>
-    <t>ユーザID</t>
+    <t>Turnover</t>
   </si>
   <si>
-    <t>備考</t>
+    <t>Sales cost</t>
   </si>
   <si>
-    <t>売上高</t>
+    <t>Selling, general and administrative expenses</t>
   </si>
   <si>
-    <t>売り上げ原価</t>
+    <t>Head office allocation</t>
   </si>
   <si>
-    <t>販管費</t>
-  </si>
-  <si>
-    <t>本社配賦</t>
-  </si>
-  <si>
-    <t>バージョン番号</t>
+    <t>Version number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,6 +366,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -438,7 +390,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -470,33 +428,32 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>検索条件</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>表示対象ページ数＝</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>2</a:t>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Search condition</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>表示件数＝</a:t>
+            <a:rPr lang="en-US">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Number of pages to be displayed = 2</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>20</a:t>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Number of records displayed = 20</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -517,20 +474,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="グループ化 2"/>
+        <xdr:cNvPr id="3" name="グループ化 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="6610350" y="6629400"/>
-          <a:ext cx="1000125" cy="342900"/>
+          <a:off x="5926231" y="6352801"/>
+          <a:ext cx="896470" cy="335430"/>
           <a:chOff x="6400800" y="22221825"/>
           <a:chExt cx="1000125" cy="342900"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="4" name="直線コネクタ 3"/>
+          <xdr:cNvPr id="4" name="直線コネクタ 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -560,7 +529,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="5" name="直線コネクタ 4"/>
+          <xdr:cNvPr id="5" name="直線コネクタ 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -590,7 +565,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="6" name="直線コネクタ 5"/>
+          <xdr:cNvPr id="6" name="直線コネクタ 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -620,7 +601,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="円/楕円 6"/>
+          <xdr:cNvPr id="7" name="円/楕円 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -662,7 +649,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -684,20 +674,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="グループ化 7"/>
+        <xdr:cNvPr id="8" name="グループ化 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1790700" y="6800850"/>
-          <a:ext cx="1000125" cy="342900"/>
+          <a:off x="1612153" y="6520516"/>
+          <a:ext cx="896471" cy="332068"/>
           <a:chOff x="6400800" y="22221825"/>
           <a:chExt cx="1000125" cy="342900"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="9" name="直線コネクタ 8"/>
+          <xdr:cNvPr id="9" name="直線コネクタ 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -727,7 +729,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="10" name="直線コネクタ 9"/>
+          <xdr:cNvPr id="10" name="直線コネクタ 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -757,7 +765,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="11" name="直線コネクタ 10"/>
+          <xdr:cNvPr id="11" name="直線コネクタ 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -787,7 +801,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="円/楕円 11"/>
+          <xdr:cNvPr id="12" name="円/楕円 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -829,7 +849,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -851,20 +874,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13" name="グループ化 12"/>
+        <xdr:cNvPr id="13" name="グループ化 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="4410074" y="6667500"/>
-          <a:ext cx="1000125" cy="342900"/>
+          <a:off x="3953995" y="6390901"/>
+          <a:ext cx="896470" cy="335430"/>
           <a:chOff x="6400800" y="22221825"/>
           <a:chExt cx="1000125" cy="342900"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="14" name="直線コネクタ 13"/>
+          <xdr:cNvPr id="14" name="直線コネクタ 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -894,7 +929,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="15" name="直線コネクタ 14"/>
+          <xdr:cNvPr id="15" name="直線コネクタ 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -924,7 +965,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="16" name="直線コネクタ 15"/>
+          <xdr:cNvPr id="16" name="直線コネクタ 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -954,7 +1001,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="円/楕円 16"/>
+          <xdr:cNvPr id="17" name="円/楕円 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -996,7 +1049,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1018,7 +1074,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="角丸四角形 17"/>
+        <xdr:cNvPr id="18" name="角丸四角形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1050,33 +1112,32 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>検索条件</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>表示対象ページ数＝</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Search condition</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>表示件数＝</a:t>
+            <a:rPr lang="en-US">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Number of pages to be displayed = 1</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>20</a:t>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Number of records displayed = 20</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1097,7 +1158,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1129,12 +1196,11 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>DB</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>検索</a:t>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>DB search</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1156,7 +1222,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="図 19"/>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1207,7 +1279,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="18" idx="0"/>
         </xdr:cNvCxnSpPr>
@@ -1256,7 +1334,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="2" idx="0"/>
         </xdr:cNvCxnSpPr>
@@ -1305,7 +1389,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="角丸四角形 22"/>
+        <xdr:cNvPr id="23" name="角丸四角形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1337,8 +1427,11 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>業務アクション</a:t>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Business action</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1360,7 +1453,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="角丸四角形 23"/>
+        <xdr:cNvPr id="24" name="角丸四角形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1391,20 +1490,16 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>検索及び一覧画面</a:t>
+            <a:t>Search and List Screen</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1425,20 +1520,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="25" name="グループ化 24"/>
+        <xdr:cNvPr id="25" name="グループ化 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1619250" y="990600"/>
-          <a:ext cx="1781175" cy="219075"/>
+          <a:off x="1453403" y="955115"/>
+          <a:ext cx="1594597" cy="204881"/>
           <a:chOff x="10487025" y="13677900"/>
           <a:chExt cx="1381125" cy="114300"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="26" name="直線矢印コネクタ 25"/>
+          <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1470,7 +1577,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
+          <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1518,7 +1631,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1550,8 +1669,11 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>検索</a:t>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Search</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1573,20 +1695,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="29" name="グループ化 28"/>
+        <xdr:cNvPr id="29" name="グループ化 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1676400" y="1685925"/>
-          <a:ext cx="1714500" cy="209550"/>
+          <a:off x="1510553" y="1622051"/>
+          <a:ext cx="1535953" cy="195356"/>
           <a:chOff x="10487025" y="13677900"/>
           <a:chExt cx="1381125" cy="114300"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="30" name="直線矢印コネクタ 29"/>
+          <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1618,7 +1752,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="31" name="直線矢印コネクタ 30"/>
+          <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1666,7 +1806,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1698,8 +1844,11 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ページング</a:t>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Paging</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1721,7 +1870,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1756,14 +1911,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1400" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1784,7 +1937,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1819,14 +1978,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1400" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1847,7 +2004,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1882,14 +2045,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1400" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>3</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
-            <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1910,20 +2071,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="36" name="グループ化 35"/>
+        <xdr:cNvPr id="36" name="グループ化 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1657350" y="323850"/>
-          <a:ext cx="1781175" cy="219075"/>
+          <a:off x="1491503" y="316753"/>
+          <a:ext cx="1594597" cy="204881"/>
           <a:chOff x="10487025" y="13677900"/>
           <a:chExt cx="1381125" cy="114300"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="37" name="直線矢印コネクタ 36"/>
+          <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1955,7 +2128,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
+          <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1997,19 +2176,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:colOff>11205</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2352676" y="581025"/>
-          <a:ext cx="857250" cy="361950"/>
+          <a:off x="1833283" y="257175"/>
+          <a:ext cx="699246" cy="426384"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2035,8 +2220,11 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>初期表示</a:t>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Initial display</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2058,7 +2246,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="正方形/長方形 39"/>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2090,12 +2284,11 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>DB</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>検索</a:t>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>DB search</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2117,7 +2310,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2049" name="Text Box 1"/>
+        <xdr:cNvPr id="2049" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2146,16 +2345,17 @@
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l" rtl="0">
+          <a:pPr algn="l">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>&lt;n:include path="/WEB-INF/view/common/sidemenu.jsp" /&gt;</a:t>
           </a:r>
@@ -2179,7 +2379,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2050" name="Text Box 2"/>
+        <xdr:cNvPr id="2050" name="Text Box 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2208,16 +2414,17 @@
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l" rtl="0">
+          <a:pPr algn="l">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>&lt;n:include path="/WEB-INF/view/common/sidemenu.jsp" /&gt;</a:t>
           </a:r>
@@ -2241,7 +2448,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2051" name="Text Box 3"/>
+        <xdr:cNvPr id="2051" name="Text Box 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2270,16 +2483,17 @@
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l" rtl="0">
+          <a:pPr algn="l">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>&lt;n:include path="/WEB-INF/view/common/sidemenu.jsp" /&gt;</a:t>
           </a:r>
@@ -2303,20 +2517,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="51" name="グループ化 50"/>
+        <xdr:cNvPr id="51" name="グループ化 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="904875" y="10296525"/>
-          <a:ext cx="10229849" cy="6829425"/>
+          <a:off x="821951" y="9877612"/>
+          <a:ext cx="9172574" cy="6545542"/>
           <a:chOff x="904875" y="10296525"/>
           <a:chExt cx="10229849" cy="6829425"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="49" name="グループ化 48"/>
+          <xdr:cNvPr id="49" name="グループ化 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2329,7 +2555,13 @@
         </xdr:grpSpPr>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="41" name="図 40"/>
+            <xdr:cNvPr id="41" name="図 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1"/>
             </xdr:cNvPicPr>
@@ -2358,7 +2590,13 @@
         </xdr:pic>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+            <xdr:cNvPr id="42" name="正方形/長方形 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2394,13 +2632,22 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="44" name="正方形/長方形 43"/>
+            <xdr:cNvPr id="44" name="正方形/長方形 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2436,13 +2683,22 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="45" name="正方形/長方形 44"/>
+            <xdr:cNvPr id="45" name="正方形/長方形 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2477,44 +2733,45 @@
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-                <a:t>検索結果</a:t>
+                <a:rPr kumimoji="1" lang="en-US" sz="1400" b="1">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>Search results</a:t>
               </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
             </a:p>
             <a:p>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+              <a:pPr algn="l"/>
+              <a:endParaRPr>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:pPr algn="l"/>
               <a:r>
-                <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1" i="1">
+                <a:rPr lang="en-US" sz="1400" b="1" i="1">
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>/WEB-INF/view/project/index.jsp</a:t>
               </a:r>
-              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400" b="1" i="1">
-                <a:effectLst/>
-              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+            <xdr:cNvPr id="43" name="正方形/長方形 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2549,50 +2806,30 @@
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                <a:rPr lang="en-US">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>検索サイドメニュー</a:t>
+                <a:t>Search side menu</a:t>
               </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
             </a:p>
             <a:p>
               <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+              <a:endParaRPr>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:endParaRPr>
             </a:p>
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1" i="1">
+                <a:rPr lang="en-US" sz="1400" b="1" i="1">
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>/WEB-INF/view/</a:t>
               </a:r>
@@ -2600,25 +2837,29 @@
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1" i="1">
+                <a:rPr lang="en-US" sz="1400" b="1" i="1">
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>common/sidemenu.jsp</a:t>
               </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="48" name="右矢印 47"/>
+          <xdr:cNvPr id="48" name="右矢印 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2650,29 +2891,33 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1" i="1"/>
+              <a:rPr lang="en-US" sz="1400" b="1" i="1">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
               <a:t>&lt;n:include path=</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1" i="1">
+              <a:rPr lang="en-US" sz="1400" b="1" i="1">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
               <a:t>"/WEB-INF/view/common/sidemenu.jsp" </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1" i="1"/>
+              <a:rPr lang="en-US" sz="1400" b="1" i="1">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
               <a:t>/&gt;</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" i="1"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2694,20 +2939,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="図 53"/>
+        <xdr:cNvPr id="54" name="図 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect r="3065"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2744,7 +2995,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="正方形/長方形 56"/>
+        <xdr:cNvPr id="57" name="正方形/長方形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2776,7 +3033,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2797,7 +3057,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="右矢印 55"/>
+        <xdr:cNvPr id="56" name="右矢印 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2833,7 +3099,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2854,7 +3123,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="角丸四角形 59"/>
+        <xdr:cNvPr id="60" name="角丸四角形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2886,14 +3161,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>検索メソッド</a:t>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Search method (ProjectAction#list)</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-            <a:t>(ProjectAction#list)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2914,7 +3187,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="正方形/長方形 61"/>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2946,12 +3225,11 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>/action/project/list?</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>検索条件</a:t>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>/Action/project/list? search condition</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2973,7 +3251,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="図 58"/>
+        <xdr:cNvPr id="59" name="図 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3017,20 +3301,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="図 67"/>
+        <xdr:cNvPr id="68" name="図 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect r="3065"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -3065,7 +3355,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="正方形/長方形 68"/>
+        <xdr:cNvPr id="69" name="正方形/長方形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3098,7 +3394,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3119,7 +3418,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2052" name="直線コネクタ 2051"/>
+        <xdr:cNvPr id="2052" name="直線コネクタ 2051">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="69" idx="3"/>
           <a:endCxn id="68" idx="1"/>
@@ -3171,7 +3476,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="角丸四角形 60"/>
+        <xdr:cNvPr id="61" name="角丸四角形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3203,16 +3514,11 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>入力された検索条件を</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>格納したフォーム</a:t>
+            <a:rPr lang="en-US">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>The form that contains the entered search conditions</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3234,7 +3540,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="角丸四角形 62"/>
+        <xdr:cNvPr id="63" name="角丸四角形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3266,14 +3578,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>検索条件</a:t>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Search conditions DTO</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-            <a:t>DTO</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3294,7 +3604,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="直線矢印コネクタ 64"/>
+        <xdr:cNvPr id="65" name="直線矢印コネクタ 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="61" idx="3"/>
           <a:endCxn id="63" idx="1"/>
@@ -3344,7 +3660,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="直線矢印コネクタ 65"/>
+        <xdr:cNvPr id="66" name="直線矢印コネクタ 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="63" idx="3"/>
           <a:endCxn id="77" idx="1"/>
@@ -3394,7 +3716,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="正方形/長方形 66"/>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3426,10 +3754,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" b="1" i="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>BeanUtil</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" i="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3450,7 +3780,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="角丸四角形 76"/>
+        <xdr:cNvPr id="77" name="角丸四角形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3482,8 +3818,11 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>検索結果</a:t>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Search result</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3505,7 +3844,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="正方形/長方形 83"/>
+        <xdr:cNvPr id="84" name="正方形/長方形 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3537,14 +3882,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" i="1"/>
-            <a:t>ユニバーサル</a:t>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" b="1" i="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Universal DAO</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1"/>
-            <a:t>DAO</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" i="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3560,7 +3903,13 @@
     <xdr:ext cx="2466974" cy="6033976"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="図 71"/>
+        <xdr:cNvPr id="72" name="図 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3604,7 +3953,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="正方形/長方形 73"/>
+        <xdr:cNvPr id="74" name="正方形/長方形 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3637,7 +3992,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3658,7 +4016,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="75" name="直線コネクタ 74"/>
+        <xdr:cNvPr id="75" name="直線コネクタ 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="74" idx="3"/>
           <a:endCxn id="68" idx="1"/>
@@ -3710,7 +4074,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="図 52"/>
+        <xdr:cNvPr id="53" name="図 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3754,7 +4124,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="正方形/長方形 77"/>
+        <xdr:cNvPr id="78" name="正方形/長方形 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3787,7 +4163,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3798,18 +4177,24 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>95249</xdr:colOff>
       <xdr:row>188</xdr:row>
-      <xdr:rowOff>105933</xdr:rowOff>
+      <xdr:rowOff>117507</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="752475" cy="292452"/>
+    <xdr:ext cx="752475" cy="269304"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="テキスト ボックス 57"/>
+        <xdr:cNvPr id="58" name="テキスト ボックス 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3895724" y="32462358"/>
-          <a:ext cx="752475" cy="292452"/>
+          <a:off x="3352799" y="35979132"/>
+          <a:ext cx="752475" cy="269304"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3843,8 +4228,11 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
-            <a:t>押下</a:t>
+            <a:rPr kumimoji="1" lang="en-US" sz="1200" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Click</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3856,17 +4244,23 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>189</xdr:row>
-      <xdr:rowOff>80709</xdr:rowOff>
+      <xdr:rowOff>61659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>95249</xdr:colOff>
       <xdr:row>191</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2053" name="直線コネクタ 2052"/>
+        <xdr:cNvPr id="2053" name="直線コネクタ 2052">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="78" idx="3"/>
           <a:endCxn id="58" idx="1"/>
@@ -3874,8 +4268,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2905125" y="32608584"/>
-          <a:ext cx="990599" cy="414591"/>
+          <a:off x="2505075" y="36113784"/>
+          <a:ext cx="847724" cy="481266"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3918,20 +4312,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="図 72"/>
+        <xdr:cNvPr id="73" name="図 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect r="3065"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -4270,16 +4670,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:BO130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="K171" sqref="K171:X213"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -4306,7 +4706,7 @@
       <c r="X2" s="16"/>
       <c r="Y2" s="16"/>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -4333,7 +4733,7 @@
       <c r="X3" s="16"/>
       <c r="Y3" s="16"/>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -4360,7 +4760,7 @@
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -4387,7 +4787,7 @@
       <c r="X5" s="16"/>
       <c r="Y5" s="16"/>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -4414,7 +4814,7 @@
       <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -4441,7 +4841,7 @@
       <c r="X7" s="16"/>
       <c r="Y7" s="16"/>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -4468,7 +4868,7 @@
       <c r="X8" s="16"/>
       <c r="Y8" s="16"/>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -4495,7 +4895,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -4522,7 +4922,7 @@
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -4587,7 +4987,7 @@
       <c r="BN11" s="16"/>
       <c r="BO11" s="16"/>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -4652,7 +5052,7 @@
       <c r="BN12" s="16"/>
       <c r="BO12" s="16"/>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -4717,7 +5117,7 @@
       <c r="BN13" s="16"/>
       <c r="BO13" s="16"/>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.2">
       <c r="T14" s="16"/>
       <c r="AD14" s="16"/>
       <c r="AE14" s="16"/>
@@ -4758,7 +5158,7 @@
       <c r="BN14" s="16"/>
       <c r="BO14" s="16"/>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.2">
       <c r="AD15" s="16"/>
       <c r="AE15" s="16"/>
       <c r="AF15" s="16"/>
@@ -4798,7 +5198,7 @@
       <c r="BN15" s="16"/>
       <c r="BO15" s="16"/>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.2">
       <c r="AD16" s="16"/>
       <c r="AE16" s="16"/>
       <c r="AF16" s="16"/>
@@ -4838,7 +5238,7 @@
       <c r="BN16" s="16"/>
       <c r="BO16" s="16"/>
     </row>
-    <row r="17" spans="2:67" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:67" x14ac:dyDescent="0.2">
       <c r="AD17" s="16"/>
       <c r="AE17" s="16"/>
       <c r="AF17" s="16"/>
@@ -4878,7 +5278,7 @@
       <c r="BN17" s="16"/>
       <c r="BO17" s="16"/>
     </row>
-    <row r="18" spans="2:67" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:67" x14ac:dyDescent="0.2">
       <c r="AD18" s="16"/>
       <c r="AE18" s="16"/>
       <c r="AF18" s="16"/>
@@ -4918,7 +5318,7 @@
       <c r="BN18" s="16"/>
       <c r="BO18" s="16"/>
     </row>
-    <row r="19" spans="2:67" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -4975,7 +5375,7 @@
       <c r="BN19" s="16"/>
       <c r="BO19" s="16"/>
     </row>
-    <row r="20" spans="2:67" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -5032,7 +5432,7 @@
       <c r="BN20" s="16"/>
       <c r="BO20" s="16"/>
     </row>
-    <row r="21" spans="2:67" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -5051,7 +5451,7 @@
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
     </row>
-    <row r="22" spans="2:67" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -5070,7 +5470,7 @@
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
     </row>
-    <row r="23" spans="2:67" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -5089,7 +5489,7 @@
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
     </row>
-    <row r="24" spans="2:67" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -5112,7 +5512,7 @@
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
     </row>
-    <row r="25" spans="2:67" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -5135,7 +5535,7 @@
       <c r="U25" s="16"/>
       <c r="V25" s="16"/>
     </row>
-    <row r="26" spans="2:67" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -5158,7 +5558,7 @@
       <c r="U26" s="16"/>
       <c r="V26" s="16"/>
     </row>
-    <row r="27" spans="2:67" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -5181,7 +5581,7 @@
       <c r="U27" s="16"/>
       <c r="V27" s="16"/>
     </row>
-    <row r="28" spans="2:67" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -5204,7 +5604,7 @@
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
     </row>
-    <row r="29" spans="2:67" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -5227,7 +5627,7 @@
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
     </row>
-    <row r="30" spans="2:67" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -5250,7 +5650,7 @@
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
     </row>
-    <row r="31" spans="2:67" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -5273,7 +5673,7 @@
       <c r="U31" s="16"/>
       <c r="V31" s="16"/>
     </row>
-    <row r="32" spans="2:67" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -5296,7 +5696,7 @@
       <c r="U32" s="16"/>
       <c r="V32" s="16"/>
     </row>
-    <row r="33" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -5321,42 +5721,42 @@
       <c r="AT33" s="16"/>
       <c r="AU33" s="16"/>
     </row>
-    <row r="34" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AT34" s="16"/>
       <c r="AU34" s="16"/>
     </row>
-    <row r="35" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AT35" s="16"/>
       <c r="AU35" s="16"/>
     </row>
-    <row r="36" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AT36" s="16"/>
       <c r="AU36" s="16"/>
     </row>
-    <row r="38" spans="2:47" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:47" ht="17.5" x14ac:dyDescent="0.2">
       <c r="E38" s="10" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AB38" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM38" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AM38" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:47" ht="15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="2:47" ht="14.5" x14ac:dyDescent="0.2">
       <c r="E39" s="17" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
       <c r="I39" s="19"/>
       <c r="O39" s="12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
@@ -5366,7 +5766,7 @@
       <c r="U39" s="14"/>
       <c r="V39" s="15"/>
       <c r="AB39" s="12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC39" s="14"/>
       <c r="AD39" s="14"/>
@@ -5374,23 +5774,23 @@
       <c r="AF39" s="14"/>
       <c r="AG39" s="15"/>
       <c r="AM39" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AN39" s="7"/>
       <c r="AO39" s="7"/>
       <c r="AP39" s="7"/>
       <c r="AQ39" s="6"/>
     </row>
-    <row r="40" spans="2:47" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:47" ht="14.5" x14ac:dyDescent="0.2">
       <c r="E40" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
       <c r="I40" s="19"/>
       <c r="O40" s="13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
@@ -5400,7 +5800,7 @@
       <c r="U40" s="5"/>
       <c r="V40" s="4"/>
       <c r="AB40" s="13" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
@@ -5408,23 +5808,23 @@
       <c r="AF40" s="5"/>
       <c r="AG40" s="4"/>
       <c r="AM40" s="11" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AN40" s="9"/>
       <c r="AO40" s="9"/>
       <c r="AP40" s="9"/>
       <c r="AQ40" s="8"/>
     </row>
-    <row r="41" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:47" x14ac:dyDescent="0.2">
       <c r="E41" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="1"/>
       <c r="O41" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
@@ -5434,7 +5834,7 @@
       <c r="U41" s="5"/>
       <c r="V41" s="4"/>
       <c r="AB41" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
@@ -5442,7 +5842,7 @@
       <c r="AF41" s="2"/>
       <c r="AG41" s="1"/>
     </row>
-    <row r="42" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:47" x14ac:dyDescent="0.2">
       <c r="O42" s="20" t="s">
         <v>15</v>
       </c>
@@ -5454,7 +5854,7 @@
       <c r="U42" s="5"/>
       <c r="V42" s="4"/>
     </row>
-    <row r="43" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:47" x14ac:dyDescent="0.2">
       <c r="O43" s="20" t="s">
         <v>16</v>
       </c>
@@ -5466,7 +5866,7 @@
       <c r="U43" s="5"/>
       <c r="V43" s="4"/>
     </row>
-    <row r="44" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:47" x14ac:dyDescent="0.2">
       <c r="O44" s="20" t="s">
         <v>17</v>
       </c>
@@ -5478,9 +5878,9 @@
       <c r="U44" s="5"/>
       <c r="V44" s="4"/>
     </row>
-    <row r="45" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:47" x14ac:dyDescent="0.2">
       <c r="O45" s="20" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
@@ -5490,9 +5890,9 @@
       <c r="U45" s="5"/>
       <c r="V45" s="4"/>
     </row>
-    <row r="46" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:47" x14ac:dyDescent="0.2">
       <c r="O46" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
@@ -5502,9 +5902,9 @@
       <c r="U46" s="5"/>
       <c r="V46" s="4"/>
     </row>
-    <row r="47" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:47" x14ac:dyDescent="0.2">
       <c r="O47" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
@@ -5514,9 +5914,9 @@
       <c r="U47" s="5"/>
       <c r="V47" s="4"/>
     </row>
-    <row r="48" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:47" x14ac:dyDescent="0.2">
       <c r="O48" s="20" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
@@ -5526,9 +5926,9 @@
       <c r="U48" s="5"/>
       <c r="V48" s="4"/>
     </row>
-    <row r="49" spans="15:22" x14ac:dyDescent="0.15">
+    <row r="49" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O49" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
@@ -5538,9 +5938,9 @@
       <c r="U49" s="5"/>
       <c r="V49" s="4"/>
     </row>
-    <row r="50" spans="15:22" x14ac:dyDescent="0.15">
+    <row r="50" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O50" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
@@ -5550,9 +5950,9 @@
       <c r="U50" s="5"/>
       <c r="V50" s="4"/>
     </row>
-    <row r="51" spans="15:22" x14ac:dyDescent="0.15">
+    <row r="51" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O51" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
@@ -5562,9 +5962,9 @@
       <c r="U51" s="5"/>
       <c r="V51" s="4"/>
     </row>
-    <row r="52" spans="15:22" x14ac:dyDescent="0.15">
+    <row r="52" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O52" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
@@ -5574,9 +5974,9 @@
       <c r="U52" s="5"/>
       <c r="V52" s="4"/>
     </row>
-    <row r="53" spans="15:22" x14ac:dyDescent="0.15">
+    <row r="53" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O53" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
@@ -5586,9 +5986,9 @@
       <c r="U53" s="5"/>
       <c r="V53" s="4"/>
     </row>
-    <row r="54" spans="15:22" x14ac:dyDescent="0.15">
+    <row r="54" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O54" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
@@ -5598,10 +5998,10 @@
       <c r="U54" s="2"/>
       <c r="V54" s="1"/>
     </row>
-    <row r="106" spans="12:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="106" spans="12:12" ht="14.5" x14ac:dyDescent="0.2">
       <c r="L106" s="21"/>
     </row>
-    <row r="115" spans="5:42" x14ac:dyDescent="0.15">
+    <row r="115" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E115" s="16"/>
       <c r="F115" s="16"/>
       <c r="G115" s="16"/>
@@ -5641,7 +6041,7 @@
       <c r="AO115" s="16"/>
       <c r="AP115" s="16"/>
     </row>
-    <row r="116" spans="5:42" x14ac:dyDescent="0.15">
+    <row r="116" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E116" s="16"/>
       <c r="F116" s="16"/>
       <c r="G116" s="16"/>
@@ -5681,7 +6081,7 @@
       <c r="AO116" s="16"/>
       <c r="AP116" s="16"/>
     </row>
-    <row r="117" spans="5:42" x14ac:dyDescent="0.15">
+    <row r="117" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E117" s="16"/>
       <c r="F117" s="16"/>
       <c r="G117" s="16"/>
@@ -5721,7 +6121,7 @@
       <c r="AO117" s="16"/>
       <c r="AP117" s="16"/>
     </row>
-    <row r="118" spans="5:42" x14ac:dyDescent="0.15">
+    <row r="118" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E118" s="16"/>
       <c r="F118" s="16"/>
       <c r="G118" s="16"/>
@@ -5761,7 +6161,7 @@
       <c r="AO118" s="16"/>
       <c r="AP118" s="16"/>
     </row>
-    <row r="119" spans="5:42" x14ac:dyDescent="0.15">
+    <row r="119" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E119" s="16"/>
       <c r="F119" s="16"/>
       <c r="G119" s="16"/>
@@ -5801,7 +6201,7 @@
       <c r="AO119" s="16"/>
       <c r="AP119" s="16"/>
     </row>
-    <row r="120" spans="5:42" x14ac:dyDescent="0.15">
+    <row r="120" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E120" s="16"/>
       <c r="F120" s="16"/>
       <c r="G120" s="16"/>
@@ -5841,7 +6241,7 @@
       <c r="AO120" s="16"/>
       <c r="AP120" s="16"/>
     </row>
-    <row r="121" spans="5:42" x14ac:dyDescent="0.15">
+    <row r="121" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E121" s="16"/>
       <c r="F121" s="16"/>
       <c r="G121" s="16"/>
@@ -5881,7 +6281,7 @@
       <c r="AO121" s="16"/>
       <c r="AP121" s="16"/>
     </row>
-    <row r="122" spans="5:42" x14ac:dyDescent="0.15">
+    <row r="122" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E122" s="16"/>
       <c r="F122" s="16"/>
       <c r="G122" s="16"/>
@@ -5921,7 +6321,7 @@
       <c r="AO122" s="16"/>
       <c r="AP122" s="16"/>
     </row>
-    <row r="123" spans="5:42" x14ac:dyDescent="0.15">
+    <row r="123" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E123" s="16"/>
       <c r="F123" s="16"/>
       <c r="G123" s="16"/>
@@ -5961,7 +6361,7 @@
       <c r="AO123" s="16"/>
       <c r="AP123" s="16"/>
     </row>
-    <row r="124" spans="5:42" x14ac:dyDescent="0.15">
+    <row r="124" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E124" s="16"/>
       <c r="F124" s="16"/>
       <c r="G124" s="16"/>
@@ -6001,7 +6401,7 @@
       <c r="AO124" s="16"/>
       <c r="AP124" s="16"/>
     </row>
-    <row r="125" spans="5:42" x14ac:dyDescent="0.15">
+    <row r="125" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E125" s="16"/>
       <c r="F125" s="16"/>
       <c r="G125" s="16"/>
@@ -6041,7 +6441,7 @@
       <c r="AO125" s="16"/>
       <c r="AP125" s="16"/>
     </row>
-    <row r="126" spans="5:42" x14ac:dyDescent="0.15">
+    <row r="126" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E126" s="16"/>
       <c r="F126" s="16"/>
       <c r="G126" s="16"/>
@@ -6081,7 +6481,7 @@
       <c r="AO126" s="16"/>
       <c r="AP126" s="16"/>
     </row>
-    <row r="127" spans="5:42" x14ac:dyDescent="0.15">
+    <row r="127" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E127" s="16"/>
       <c r="F127" s="16"/>
       <c r="G127" s="16"/>
@@ -6121,7 +6521,7 @@
       <c r="AO127" s="16"/>
       <c r="AP127" s="16"/>
     </row>
-    <row r="128" spans="5:42" x14ac:dyDescent="0.15">
+    <row r="128" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E128" s="16"/>
       <c r="F128" s="16"/>
       <c r="G128" s="16"/>
@@ -6161,7 +6561,7 @@
       <c r="AO128" s="16"/>
       <c r="AP128" s="16"/>
     </row>
-    <row r="129" spans="5:42" x14ac:dyDescent="0.15">
+    <row r="129" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E129" s="16"/>
       <c r="F129" s="16"/>
       <c r="G129" s="16"/>
@@ -6201,7 +6601,7 @@
       <c r="AO129" s="16"/>
       <c r="AP129" s="16"/>
     </row>
-    <row r="130" spans="5:42" x14ac:dyDescent="0.15">
+    <row r="130" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E130" s="16"/>
       <c r="F130" s="16"/>
       <c r="G130" s="16"/>
@@ -6250,14 +6650,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/en/application_framework/application_framework/web/getting_started/images/project_search/images.xlsx
+++ b/en/application_framework/application_framework/web/getting_started/images/project_search/images.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D09AA3-D313-4B99-9B55-3333BB9E091B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C91B61-99EE-40F4-A249-2BB25C230664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13695" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクト検索" sheetId="4" r:id="rId1"/>
@@ -485,8 +485,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="5926231" y="6352801"/>
-          <a:ext cx="896470" cy="335430"/>
+          <a:off x="6296025" y="6502213"/>
+          <a:ext cx="952500" cy="342900"/>
           <a:chOff x="6400800" y="22221825"/>
           <a:chExt cx="1000125" cy="342900"/>
         </a:xfrm>
@@ -685,8 +685,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1612153" y="6520516"/>
-          <a:ext cx="896471" cy="332068"/>
+          <a:off x="1714500" y="6673663"/>
+          <a:ext cx="952500" cy="339538"/>
           <a:chOff x="6400800" y="22221825"/>
           <a:chExt cx="1000125" cy="342900"/>
         </a:xfrm>
@@ -885,8 +885,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="3953995" y="6390901"/>
-          <a:ext cx="896470" cy="335430"/>
+          <a:off x="4200524" y="6540313"/>
+          <a:ext cx="952500" cy="342900"/>
           <a:chOff x="6400800" y="22221825"/>
           <a:chExt cx="1000125" cy="342900"/>
         </a:xfrm>
@@ -1531,8 +1531,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1453403" y="955115"/>
-          <a:ext cx="1594597" cy="204881"/>
+          <a:off x="1543050" y="973791"/>
+          <a:ext cx="1695450" cy="212352"/>
           <a:chOff x="10487025" y="13677900"/>
           <a:chExt cx="1381125" cy="114300"/>
         </a:xfrm>
@@ -1706,8 +1706,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1510553" y="1622051"/>
-          <a:ext cx="1535953" cy="195356"/>
+          <a:off x="1600200" y="1655669"/>
+          <a:ext cx="1638300" cy="202827"/>
           <a:chOff x="10487025" y="13677900"/>
           <a:chExt cx="1381125" cy="114300"/>
         </a:xfrm>
@@ -2082,8 +2082,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1491503" y="316753"/>
-          <a:ext cx="1594597" cy="204881"/>
+          <a:off x="1581150" y="320488"/>
+          <a:ext cx="1695450" cy="212352"/>
           <a:chOff x="10487025" y="13677900"/>
           <a:chExt cx="1381125" cy="114300"/>
         </a:xfrm>
@@ -2528,8 +2528,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="821951" y="9877612"/>
-          <a:ext cx="9172574" cy="6545542"/>
+          <a:off x="866775" y="10105465"/>
+          <a:ext cx="9744074" cy="6694954"/>
           <a:chOff x="904875" y="10296525"/>
           <a:chExt cx="10229849" cy="6829425"/>
         </a:xfrm>
@@ -4059,244 +4059,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>132417</xdr:colOff>
-      <xdr:row>212</xdr:row>
-      <xdr:rowOff>1087</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="図 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2171700" y="29394149"/>
-          <a:ext cx="2561292" cy="7078163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="正方形/長方形 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2228850" y="32899350"/>
-          <a:ext cx="676275" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>117507</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="752475" cy="269304"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="テキスト ボックス 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3352799" y="35979132"/>
-          <a:ext cx="752475" cy="269304"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" sz="1200" b="1">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Click</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>61659</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2053" name="直線コネクタ 2052">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005080000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="78" idx="3"/>
-          <a:endCxn id="58" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2505075" y="36113784"/>
-          <a:ext cx="847724" cy="481266"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
@@ -4349,6 +4111,218 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>135935</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>166996</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="70" name="グループ化 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65A44FAC-EB1A-405C-99CB-BACF16090533}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2095500" y="28709471"/>
+          <a:ext cx="2802935" cy="7730966"/>
+          <a:chOff x="5200650" y="30984825"/>
+          <a:chExt cx="2802935" cy="7730966"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="71" name="図 70">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E243F52-14BA-FC97-0959-3C5634DEC370}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5200650" y="30984825"/>
+            <a:ext cx="2802935" cy="7730966"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="76" name="正方形/長方形 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45C080F8-5A78-02AA-FD97-3D642A25F83B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5534026" y="34585275"/>
+            <a:ext cx="723900" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="25400"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="79" name="テキスト ボックス 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F633089-FF0C-1801-B0A4-4E1CDB95EB2E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7210424" y="34168223"/>
+            <a:ext cx="752475" cy="269304"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Click</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="80" name="直線コネクタ 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F9B7CD6-025D-57D7-0287-3EBD95A6DDF0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+            <a:stCxn id="76" idx="3"/>
+            <a:endCxn id="79" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="6257926" y="34302875"/>
+            <a:ext cx="952498" cy="425275"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4673,13 +4647,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:BO130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE9" sqref="AE9"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.15">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -4706,7 +4678,7 @@
       <c r="X2" s="16"/>
       <c r="Y2" s="16"/>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.15">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -4733,7 +4705,7 @@
       <c r="X3" s="16"/>
       <c r="Y3" s="16"/>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.15">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -4760,7 +4732,7 @@
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -4787,7 +4759,7 @@
       <c r="X5" s="16"/>
       <c r="Y5" s="16"/>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.15">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -4814,7 +4786,7 @@
       <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.15">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -4841,7 +4813,7 @@
       <c r="X7" s="16"/>
       <c r="Y7" s="16"/>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.15">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -4868,7 +4840,7 @@
       <c r="X8" s="16"/>
       <c r="Y8" s="16"/>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.15">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -4895,7 +4867,7 @@
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.15">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -4922,7 +4894,7 @@
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.15">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -4987,7 +4959,7 @@
       <c r="BN11" s="16"/>
       <c r="BO11" s="16"/>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:67" x14ac:dyDescent="0.15">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -5052,7 +5024,7 @@
       <c r="BN12" s="16"/>
       <c r="BO12" s="16"/>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.15">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -5117,7 +5089,7 @@
       <c r="BN13" s="16"/>
       <c r="BO13" s="16"/>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.15">
       <c r="T14" s="16"/>
       <c r="AD14" s="16"/>
       <c r="AE14" s="16"/>
@@ -5158,7 +5130,7 @@
       <c r="BN14" s="16"/>
       <c r="BO14" s="16"/>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.15">
       <c r="AD15" s="16"/>
       <c r="AE15" s="16"/>
       <c r="AF15" s="16"/>
@@ -5198,7 +5170,7 @@
       <c r="BN15" s="16"/>
       <c r="BO15" s="16"/>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.15">
       <c r="AD16" s="16"/>
       <c r="AE16" s="16"/>
       <c r="AF16" s="16"/>
@@ -5238,7 +5210,7 @@
       <c r="BN16" s="16"/>
       <c r="BO16" s="16"/>
     </row>
-    <row r="17" spans="2:67" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:67" x14ac:dyDescent="0.15">
       <c r="AD17" s="16"/>
       <c r="AE17" s="16"/>
       <c r="AF17" s="16"/>
@@ -5278,7 +5250,7 @@
       <c r="BN17" s="16"/>
       <c r="BO17" s="16"/>
     </row>
-    <row r="18" spans="2:67" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:67" x14ac:dyDescent="0.15">
       <c r="AD18" s="16"/>
       <c r="AE18" s="16"/>
       <c r="AF18" s="16"/>
@@ -5318,7 +5290,7 @@
       <c r="BN18" s="16"/>
       <c r="BO18" s="16"/>
     </row>
-    <row r="19" spans="2:67" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:67" x14ac:dyDescent="0.15">
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -5375,7 +5347,7 @@
       <c r="BN19" s="16"/>
       <c r="BO19" s="16"/>
     </row>
-    <row r="20" spans="2:67" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:67" x14ac:dyDescent="0.15">
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -5432,7 +5404,7 @@
       <c r="BN20" s="16"/>
       <c r="BO20" s="16"/>
     </row>
-    <row r="21" spans="2:67" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:67" x14ac:dyDescent="0.15">
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -5451,7 +5423,7 @@
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
     </row>
-    <row r="22" spans="2:67" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:67" x14ac:dyDescent="0.15">
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -5470,7 +5442,7 @@
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
     </row>
-    <row r="23" spans="2:67" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:67" x14ac:dyDescent="0.15">
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -5489,7 +5461,7 @@
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
     </row>
-    <row r="24" spans="2:67" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:67" x14ac:dyDescent="0.15">
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -5512,7 +5484,7 @@
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
     </row>
-    <row r="25" spans="2:67" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:67" x14ac:dyDescent="0.15">
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -5535,7 +5507,7 @@
       <c r="U25" s="16"/>
       <c r="V25" s="16"/>
     </row>
-    <row r="26" spans="2:67" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:67" x14ac:dyDescent="0.15">
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -5558,7 +5530,7 @@
       <c r="U26" s="16"/>
       <c r="V26" s="16"/>
     </row>
-    <row r="27" spans="2:67" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:67" x14ac:dyDescent="0.15">
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -5581,7 +5553,7 @@
       <c r="U27" s="16"/>
       <c r="V27" s="16"/>
     </row>
-    <row r="28" spans="2:67" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:67" x14ac:dyDescent="0.15">
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -5604,7 +5576,7 @@
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
     </row>
-    <row r="29" spans="2:67" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:67" x14ac:dyDescent="0.15">
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -5627,7 +5599,7 @@
       <c r="U29" s="16"/>
       <c r="V29" s="16"/>
     </row>
-    <row r="30" spans="2:67" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:67" x14ac:dyDescent="0.15">
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -5650,7 +5622,7 @@
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
     </row>
-    <row r="31" spans="2:67" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:67" x14ac:dyDescent="0.15">
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -5673,7 +5645,7 @@
       <c r="U31" s="16"/>
       <c r="V31" s="16"/>
     </row>
-    <row r="32" spans="2:67" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:67" x14ac:dyDescent="0.15">
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -5696,7 +5668,7 @@
       <c r="U32" s="16"/>
       <c r="V32" s="16"/>
     </row>
-    <row r="33" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -5721,19 +5693,19 @@
       <c r="AT33" s="16"/>
       <c r="AU33" s="16"/>
     </row>
-    <row r="34" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:47" x14ac:dyDescent="0.15">
       <c r="AT34" s="16"/>
       <c r="AU34" s="16"/>
     </row>
-    <row r="35" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:47" x14ac:dyDescent="0.15">
       <c r="AT35" s="16"/>
       <c r="AU35" s="16"/>
     </row>
-    <row r="36" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:47" x14ac:dyDescent="0.15">
       <c r="AT36" s="16"/>
       <c r="AU36" s="16"/>
     </row>
-    <row r="38" spans="2:47" ht="17.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:47" ht="18.75" x14ac:dyDescent="0.15">
       <c r="E38" s="10" t="s">
         <v>0</v>
       </c>
@@ -5747,7 +5719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:47" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:47" ht="15" x14ac:dyDescent="0.15">
       <c r="E39" s="17" t="s">
         <v>4</v>
       </c>
@@ -5781,7 +5753,7 @@
       <c r="AP39" s="7"/>
       <c r="AQ39" s="6"/>
     </row>
-    <row r="40" spans="2:47" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:47" ht="15" x14ac:dyDescent="0.15">
       <c r="E40" s="17" t="s">
         <v>8</v>
       </c>
@@ -5815,7 +5787,7 @@
       <c r="AP40" s="9"/>
       <c r="AQ40" s="8"/>
     </row>
-    <row r="41" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:47" x14ac:dyDescent="0.15">
       <c r="E41" s="3" t="s">
         <v>12</v>
       </c>
@@ -5842,7 +5814,7 @@
       <c r="AF41" s="2"/>
       <c r="AG41" s="1"/>
     </row>
-    <row r="42" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:47" x14ac:dyDescent="0.15">
       <c r="O42" s="20" t="s">
         <v>15</v>
       </c>
@@ -5854,7 +5826,7 @@
       <c r="U42" s="5"/>
       <c r="V42" s="4"/>
     </row>
-    <row r="43" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:47" x14ac:dyDescent="0.15">
       <c r="O43" s="20" t="s">
         <v>16</v>
       </c>
@@ -5866,7 +5838,7 @@
       <c r="U43" s="5"/>
       <c r="V43" s="4"/>
     </row>
-    <row r="44" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:47" x14ac:dyDescent="0.15">
       <c r="O44" s="20" t="s">
         <v>17</v>
       </c>
@@ -5878,7 +5850,7 @@
       <c r="U44" s="5"/>
       <c r="V44" s="4"/>
     </row>
-    <row r="45" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:47" x14ac:dyDescent="0.15">
       <c r="O45" s="20" t="s">
         <v>6</v>
       </c>
@@ -5890,7 +5862,7 @@
       <c r="U45" s="5"/>
       <c r="V45" s="4"/>
     </row>
-    <row r="46" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:47" x14ac:dyDescent="0.15">
       <c r="O46" s="20" t="s">
         <v>18</v>
       </c>
@@ -5902,7 +5874,7 @@
       <c r="U46" s="5"/>
       <c r="V46" s="4"/>
     </row>
-    <row r="47" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:47" x14ac:dyDescent="0.15">
       <c r="O47" s="20" t="s">
         <v>19</v>
       </c>
@@ -5914,7 +5886,7 @@
       <c r="U47" s="5"/>
       <c r="V47" s="4"/>
     </row>
-    <row r="48" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:47" x14ac:dyDescent="0.15">
       <c r="O48" s="20" t="s">
         <v>4</v>
       </c>
@@ -5926,7 +5898,7 @@
       <c r="U48" s="5"/>
       <c r="V48" s="4"/>
     </row>
-    <row r="49" spans="15:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="15:22" x14ac:dyDescent="0.15">
       <c r="O49" s="20" t="s">
         <v>20</v>
       </c>
@@ -5938,7 +5910,7 @@
       <c r="U49" s="5"/>
       <c r="V49" s="4"/>
     </row>
-    <row r="50" spans="15:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="15:22" x14ac:dyDescent="0.15">
       <c r="O50" s="20" t="s">
         <v>21</v>
       </c>
@@ -5950,7 +5922,7 @@
       <c r="U50" s="5"/>
       <c r="V50" s="4"/>
     </row>
-    <row r="51" spans="15:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="15:22" x14ac:dyDescent="0.15">
       <c r="O51" s="20" t="s">
         <v>22</v>
       </c>
@@ -5962,7 +5934,7 @@
       <c r="U51" s="5"/>
       <c r="V51" s="4"/>
     </row>
-    <row r="52" spans="15:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="15:22" x14ac:dyDescent="0.15">
       <c r="O52" s="20" t="s">
         <v>23</v>
       </c>
@@ -5974,7 +5946,7 @@
       <c r="U52" s="5"/>
       <c r="V52" s="4"/>
     </row>
-    <row r="53" spans="15:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="15:22" x14ac:dyDescent="0.15">
       <c r="O53" s="20" t="s">
         <v>24</v>
       </c>
@@ -5986,7 +5958,7 @@
       <c r="U53" s="5"/>
       <c r="V53" s="4"/>
     </row>
-    <row r="54" spans="15:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="15:22" x14ac:dyDescent="0.15">
       <c r="O54" s="3" t="s">
         <v>25</v>
       </c>
@@ -5998,10 +5970,10 @@
       <c r="U54" s="2"/>
       <c r="V54" s="1"/>
     </row>
-    <row r="106" spans="12:12" ht="14.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="12:12" ht="15" x14ac:dyDescent="0.15">
       <c r="L106" s="21"/>
     </row>
-    <row r="115" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="115" spans="5:42" x14ac:dyDescent="0.15">
       <c r="E115" s="16"/>
       <c r="F115" s="16"/>
       <c r="G115" s="16"/>
@@ -6041,7 +6013,7 @@
       <c r="AO115" s="16"/>
       <c r="AP115" s="16"/>
     </row>
-    <row r="116" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="116" spans="5:42" x14ac:dyDescent="0.15">
       <c r="E116" s="16"/>
       <c r="F116" s="16"/>
       <c r="G116" s="16"/>
@@ -6081,7 +6053,7 @@
       <c r="AO116" s="16"/>
       <c r="AP116" s="16"/>
     </row>
-    <row r="117" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="117" spans="5:42" x14ac:dyDescent="0.15">
       <c r="E117" s="16"/>
       <c r="F117" s="16"/>
       <c r="G117" s="16"/>
@@ -6121,7 +6093,7 @@
       <c r="AO117" s="16"/>
       <c r="AP117" s="16"/>
     </row>
-    <row r="118" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="118" spans="5:42" x14ac:dyDescent="0.15">
       <c r="E118" s="16"/>
       <c r="F118" s="16"/>
       <c r="G118" s="16"/>
@@ -6161,7 +6133,7 @@
       <c r="AO118" s="16"/>
       <c r="AP118" s="16"/>
     </row>
-    <row r="119" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="119" spans="5:42" x14ac:dyDescent="0.15">
       <c r="E119" s="16"/>
       <c r="F119" s="16"/>
       <c r="G119" s="16"/>
@@ -6201,7 +6173,7 @@
       <c r="AO119" s="16"/>
       <c r="AP119" s="16"/>
     </row>
-    <row r="120" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="120" spans="5:42" x14ac:dyDescent="0.15">
       <c r="E120" s="16"/>
       <c r="F120" s="16"/>
       <c r="G120" s="16"/>
@@ -6241,7 +6213,7 @@
       <c r="AO120" s="16"/>
       <c r="AP120" s="16"/>
     </row>
-    <row r="121" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="121" spans="5:42" x14ac:dyDescent="0.15">
       <c r="E121" s="16"/>
       <c r="F121" s="16"/>
       <c r="G121" s="16"/>
@@ -6281,7 +6253,7 @@
       <c r="AO121" s="16"/>
       <c r="AP121" s="16"/>
     </row>
-    <row r="122" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="122" spans="5:42" x14ac:dyDescent="0.15">
       <c r="E122" s="16"/>
       <c r="F122" s="16"/>
       <c r="G122" s="16"/>
@@ -6321,7 +6293,7 @@
       <c r="AO122" s="16"/>
       <c r="AP122" s="16"/>
     </row>
-    <row r="123" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="123" spans="5:42" x14ac:dyDescent="0.15">
       <c r="E123" s="16"/>
       <c r="F123" s="16"/>
       <c r="G123" s="16"/>
@@ -6361,7 +6333,7 @@
       <c r="AO123" s="16"/>
       <c r="AP123" s="16"/>
     </row>
-    <row r="124" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="124" spans="5:42" x14ac:dyDescent="0.15">
       <c r="E124" s="16"/>
       <c r="F124" s="16"/>
       <c r="G124" s="16"/>
@@ -6401,7 +6373,7 @@
       <c r="AO124" s="16"/>
       <c r="AP124" s="16"/>
     </row>
-    <row r="125" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="125" spans="5:42" x14ac:dyDescent="0.15">
       <c r="E125" s="16"/>
       <c r="F125" s="16"/>
       <c r="G125" s="16"/>
@@ -6441,7 +6413,7 @@
       <c r="AO125" s="16"/>
       <c r="AP125" s="16"/>
     </row>
-    <row r="126" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="126" spans="5:42" x14ac:dyDescent="0.15">
       <c r="E126" s="16"/>
       <c r="F126" s="16"/>
       <c r="G126" s="16"/>
@@ -6481,7 +6453,7 @@
       <c r="AO126" s="16"/>
       <c r="AP126" s="16"/>
     </row>
-    <row r="127" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="127" spans="5:42" x14ac:dyDescent="0.15">
       <c r="E127" s="16"/>
       <c r="F127" s="16"/>
       <c r="G127" s="16"/>
@@ -6521,7 +6493,7 @@
       <c r="AO127" s="16"/>
       <c r="AP127" s="16"/>
     </row>
-    <row r="128" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="128" spans="5:42" x14ac:dyDescent="0.15">
       <c r="E128" s="16"/>
       <c r="F128" s="16"/>
       <c r="G128" s="16"/>
@@ -6561,7 +6533,7 @@
       <c r="AO128" s="16"/>
       <c r="AP128" s="16"/>
     </row>
-    <row r="129" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="129" spans="5:42" x14ac:dyDescent="0.15">
       <c r="E129" s="16"/>
       <c r="F129" s="16"/>
       <c r="G129" s="16"/>
@@ -6601,7 +6573,7 @@
       <c r="AO129" s="16"/>
       <c r="AP129" s="16"/>
     </row>
-    <row r="130" spans="5:42" x14ac:dyDescent="0.2">
+    <row r="130" spans="5:42" x14ac:dyDescent="0.15">
       <c r="E130" s="16"/>
       <c r="F130" s="16"/>
       <c r="G130" s="16"/>
@@ -6655,7 +6627,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
